--- a/Data/CostofCare.xlsx
+++ b/Data/CostofCare.xlsx
@@ -8,8 +8,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="CqK2hSZOhE/Uj+cajDtm/1mhkkMDbBsYGYkIPWQoZUw="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhlH/rPWAY1oJ4o6wYGaIOaOISreg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -41,7 +41,7 @@
 • Not applicable, I do not pay for child care</t>
   </si>
   <si>
-    <t>10/04/2023-10/11/2023</t>
+    <t>10/04/2023-10/11/2023 11/02/2023-11/09/2023</t>
   </si>
   <si>
     <t>Your child care expenses have increased significantly due to the recent rate or tuition increase.</t>
